--- a/data/outputs/management_altmetric/46.xlsx
+++ b/data/outputs/management_altmetric/46.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE21"/>
+  <dimension ref="A1:CF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1027,6 +1032,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1266,6 +1274,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1505,6 +1516,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1746,6 +1760,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1981,6 +1998,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2216,6 +2236,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2455,6 +2478,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2694,6 +2720,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2937,6 +2966,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3176,6 +3208,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3429,6 +3464,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3672,6 +3710,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3907,6 +3948,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4142,6 +4186,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4377,6 +4424,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4612,6 +4662,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4856,6 +4909,9 @@
       </c>
       <c r="CE18" t="n">
         <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>13.604</v>
       </c>
     </row>
     <row r="19">
@@ -5084,6 +5140,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5327,6 +5386,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5574,6 +5636,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
